--- a/프로젝트 관련/요구사항정의서 및 데이터명세서v3.xlsx
+++ b/프로젝트 관련/요구사항정의서 및 데이터명세서v3.xlsx
@@ -5,28 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\freelcove\github\netflix-data-analysis\프로젝트 관련\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\netflix-data-analysis\프로젝트 관련\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8BF195-8A0F-4492-87C4-F43F7190547D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9354B7A-755E-4A01-A58C-EABDA377CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-2745" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
     <sheet name="데이터 명세서" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,19 +107,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 구축 규모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구축 업체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -361,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023년/1,000,000,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직접 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,28 +392,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구독 모델 별 구독자 수  현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Premium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가상의 넷플렉스 유저 1억명을 포함, 학습용으로 사용 가능한 자체 제작 데이터셋.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>가상의 넷플렉스 유저 백만 명을 포함, 학습용으로 사용 가능한 자체 제작 데이터셋.</t>
+  </si>
+  <si>
+    <t>2023년/1,000,000</t>
   </si>
 </sst>
 </file>
@@ -426,20 +403,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -455,7 +432,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -464,7 +441,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -472,15 +449,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -489,7 +458,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -498,7 +467,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -506,7 +475,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -520,7 +489,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,14 +526,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="37">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -839,19 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -859,32 +809,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1000,39 +924,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1043,11 +934,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,59 +957,71 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1129,87 +1032,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1228,37 +1080,25 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1544,28 +1384,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.5" thickBot="1"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.65" thickBot="1"/>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
@@ -1573,344 +1413,360 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.5" thickTop="1">
+      <c r="C4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.65" thickTop="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
+      <c r="B5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
+      <c r="B15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+        <v>51</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
+      <c r="B25" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
+      <c r="B30" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
+        <v>64</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
+        <v>66</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B15:E15"/>
@@ -1927,22 +1783,6 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="B30:E30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1952,272 +1792,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G40"/>
+  <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="19.58203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" customWidth="1"/>
+    <col min="3" max="3" width="23.46484375" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="16.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="55.25" customWidth="1"/>
+    <col min="7" max="7" width="55.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="32.25" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="2:7" ht="17.5" thickBot="1"/>
-    <row r="4" spans="2:7" ht="25" customHeight="1">
-      <c r="B4" s="54" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="2:7" ht="14.65" thickBot="1"/>
+    <row r="4" spans="2:7" ht="25.05" customHeight="1">
+      <c r="B4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="2:7" ht="25.05" customHeight="1">
+      <c r="B5" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="2:7" ht="78" customHeight="1" thickBot="1">
+      <c r="B6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="8" spans="2:7" ht="14.65" thickBot="1">
+      <c r="B8" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="24.75" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="33.75" customHeight="1" thickBot="1">
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="5" spans="2:7" ht="25" customHeight="1">
-      <c r="B5" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="2:7" ht="78" customHeight="1" thickBot="1">
-      <c r="B6" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-    </row>
-    <row r="8" spans="2:7" ht="17.5" thickBot="1">
-      <c r="B8" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="50" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="14.65" thickBot="1">
+      <c r="B14" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="32"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="14.65" thickBot="1">
+      <c r="B16" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="24.75" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="17.5" thickBot="1">
-      <c r="B13" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="48"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="13">
-        <v>3903</v>
-      </c>
-      <c r="E16" s="13">
-        <v>5635</v>
-      </c>
-      <c r="F16" s="13">
-        <f>SUM(D16:E16)</f>
-        <v>9538</v>
-      </c>
-      <c r="G16" s="14">
-        <f>(F16/$F$18)</f>
-        <v>0.62368403844896358</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="13">
-        <v>2912</v>
-      </c>
-      <c r="E17" s="13">
-        <v>2843</v>
-      </c>
-      <c r="F17" s="13">
-        <f t="shared" ref="F17" si="0">SUM(D17:E17)</f>
-        <v>5755</v>
-      </c>
-      <c r="G17" s="14">
-        <f>(F17/$F$18)</f>
-        <v>0.37631596155103642</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="17.5" thickBot="1">
-      <c r="B18" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="21">
-        <f>SUM(D16:D17)</f>
-        <v>6815</v>
-      </c>
-      <c r="E18" s="21">
-        <f>SUM(E16:E17)</f>
-        <v>8478</v>
-      </c>
-      <c r="F18" s="21">
-        <f>SUM(F16:F17)</f>
-        <v>15293</v>
-      </c>
-      <c r="G18" s="22">
-        <f>(F18/$F$18)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="21" spans="2:7" ht="17.5" thickBot="1">
-      <c r="B21" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="48"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="17.5" thickBot="1">
-      <c r="B23" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-    </row>
-    <row r="36" ht="17.25" customHeight="1"/>
-    <row r="37" ht="17.25" customHeight="1"/>
-    <row r="38" ht="17.25" customHeight="1"/>
-    <row r="39" ht="17.25" customHeight="1"/>
-    <row r="40" ht="17.25" customHeight="1"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="29" spans="2:3" ht="17.25" customHeight="1"/>
+    <row r="30" spans="2:3" ht="17.25" customHeight="1"/>
+    <row r="31" spans="2:3" ht="17.25" customHeight="1"/>
+    <row r="32" spans="2:3" ht="17.25" customHeight="1"/>
+    <row r="33" ht="17.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="16">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
@@ -2228,22 +1972,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D23" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>

--- a/프로젝트 관련/요구사항정의서 및 데이터명세서v3.xlsx
+++ b/프로젝트 관련/요구사항정의서 및 데이터명세서v3.xlsx
@@ -1091,6 +1091,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1121,21 +1136,66 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,66 +1237,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1522,7 +1522,7 @@
   <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1535,13 +1535,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1551,313 +1551,300 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" thickTop="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="72"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="72"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="72"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="72"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="72"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="71"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="A2:E2"/>
@@ -1873,6 +1860,19 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1899,71 +1899,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="32.25" customHeight="1">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="2:7" ht="78" customHeight="1" thickBot="1">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="8" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="2:7" ht="23.25" customHeight="1">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1975,11 +1975,11 @@
       <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
@@ -1991,11 +1991,11 @@
       <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="18" t="s">
         <v>20</v>
       </c>
@@ -2004,28 +2004,28 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="39"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="61" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="59" t="s">
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="46" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="19" t="s">
         <v>38</v>
       </c>
@@ -2035,11 +2035,11 @@
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="60"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="13">
         <v>3903</v>
       </c>
@@ -2056,8 +2056,8 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="13">
         <v>2912</v>
       </c>
@@ -2074,10 +2074,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="21">
         <f>SUM(D16:D17)</f>
         <v>6815</v>
@@ -2104,33 +2104,33 @@
       <c r="G19" s="6"/>
     </row>
     <row r="21" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="39"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="68" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="56"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="69" t="s">
+      <c r="C23" s="45"/>
+      <c r="D23" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="70"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="15" t="s">
         <v>35</v>
       </c>
@@ -2146,17 +2146,6 @@
     <row r="40" ht="17.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:G2"/>
@@ -2169,6 +2158,17 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
